--- a/biology/Botanique/Begonia_sutherlandii/Begonia_sutherlandii.xlsx
+++ b/biology/Botanique/Begonia_sutherlandii/Begonia_sutherlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia sutherlandii est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique. L'espèce fait partie de la section Augustia. Elle a été décrite en 1868 par Joseph Dalton Hooker (1817-1911). L'épithète spécifique sutherlandii signifie « de Sutherland », en hommage au Dr Peter Cormac Sutherland (en) (1822-1900), un écossais en poste à Natal qui a occasionnellement récolté pour les jadins botaniques de Kew, notamment les plants originels de cette espèce[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia sutherlandii est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique. L'espèce fait partie de la section Augustia. Elle a été décrite en 1868 par Joseph Dalton Hooker (1817-1911). L'épithète spécifique sutherlandii signifie « de Sutherland », en hommage au Dr Peter Cormac Sutherland (en) (1822-1900), un écossais en poste à Natal qui a occasionnellement récolté pour les jadins botaniques de Kew, notamment les plants originels de cette espèce,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1868
@@ -545,9 +559,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Afrique. On la trouve dans les pays suivants : Lesotho ; Malawi ; Mozambique ; Afrique du Sud ; Swaziland ; Tanzanie ; Zaïre ; Zambie ; Zimbabwe[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Afrique. On la trouve dans les pays suivants : Lesotho ; Malawi ; Mozambique ; Afrique du Sud ; Swaziland ; Tanzanie ; Zaïre ; Zambie ; Zimbabwe.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 février 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Begonia sutherlandii subsp. latior Kupicha
 sous-espèce Begonia sutherlandii subsp. sutherlandii
 variété Begonia sutherlandii var. latior Irmsch.
